--- a/docs/画面項目定義書/portfolio_management.xlsx
+++ b/docs/画面項目定義書/portfolio_management.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{113E3B53-B8EA-4775-A67A-0DDDCB47C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18B9DF-105E-4546-A3D2-E7E89545EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>日本工学院</t>
   </si>
@@ -76,26 +71,40 @@
   </si>
   <si>
     <t>日付形式</t>
-  </si>
-  <si>
-    <t>記事のタイトルを表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>記事の公開日を表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>公開状態を表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>押下で成果物アップロード画面へ遷移</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>portfolio_management</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポートフォリオエンティティより</t>
+  </si>
+  <si>
+    <t>記事のタイトルを表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>記事の公開日を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>公開状態（公開中／非公開）を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>操作（編集ボタン）</t>
+  </si>
+  <si>
+    <t>ボタン（テーブル内）</t>
+  </si>
+  <si>
+    <t>押下で該当記事の編集画面へ遷移（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>操作（削除ボタン）</t>
+  </si>
+  <si>
+    <t>押下で該当記事の削除処理を実行（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>押下で成果物アップロード画面へ遷移</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -405,11 +421,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -512,8 +529,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{8EE34177-C42E-4F16-B56F-D17F17B04774}"/>
     <cellStyle name="文字" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,7 +981,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1029,7 +1047,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1081,10 +1099,12 @@
         <v>14</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.5">
@@ -1098,12 +1118,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="33" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.5">
@@ -1117,50 +1139,64 @@
         <v>14</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="13.25">
       <c r="A15" s="21">

--- a/docs/画面項目定義書/portfolio_management.xlsx
+++ b/docs/画面項目定義書/portfolio_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18B9DF-105E-4546-A3D2-E7E89545EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1433BBC7-A8DD-4EF5-A862-7337C95C9B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>日本工学院</t>
   </si>
@@ -101,10 +101,46 @@
     <t>操作（削除ボタン）</t>
   </si>
   <si>
-    <t>押下で該当記事の削除処理を実行（繰り返し表示）</t>
-  </si>
-  <si>
     <t>押下で成果物アップロード画面へ遷移</t>
+  </si>
+  <si>
+    <t>サイドバー：利用者ダッシュボード</t>
+  </si>
+  <si>
+    <t>リンク</t>
+  </si>
+  <si>
+    <t>押下で利用者ダッシュボード画面へ遷移</t>
+  </si>
+  <si>
+    <t>サイドバー：仮想ネットワークダッシュボード</t>
+  </si>
+  <si>
+    <t>押下で仮想ネットワークダッシュボード画面へ遷移</t>
+  </si>
+  <si>
+    <t>サイドバー：仮想マシン管理ダッシュボード</t>
+  </si>
+  <si>
+    <t>押下で仮想マシン管理画面へ遷移</t>
+  </si>
+  <si>
+    <t>押下で確認ポップアップ表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>確認ポップアップ：はい</t>
+  </si>
+  <si>
+    <t>ボタン（ポップアップ内）</t>
+  </si>
+  <si>
+    <t>押下で記事削除処理を実行</t>
+  </si>
+  <si>
+    <t>確認ポップアップ：いいえ</t>
+  </si>
+  <si>
+    <t>押下でポップアップを閉じる（キャンセル）</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1017,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1093,18 +1129,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.5">
@@ -1112,20 +1146,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.5">
@@ -1133,18 +1163,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.5">
@@ -1152,106 +1180,144 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.25">
+      <c r="G15" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="30"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.25">
+      <c r="G16" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.25">
+      <c r="G17" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="34" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="13.25">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="G19" s="34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="28">
